--- a/KA_Data/privateBoatBehaviour.xlsx
+++ b/KA_Data/privateBoatBehaviour.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kezij\iCloudDrive\Documents\Bristol\Year 3\MDM3\W&amp;B Canal\Canals\KA_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316C5394-AA0A-4F68-A54D-8B1DC1CE8DCB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43172A68-DB84-4B79-97B0-6690E36C8A3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A4F6C407-4BFB-44BB-B815-7C3742C9FB8D}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>continuously crusing</t>
   </si>
   <si>
-    <t>similar behaviour to hire boats</t>
-  </si>
-  <si>
     <t>Stationary</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>https://canalrivertrust.org.uk/media/original/33419-boat-owners-survey-2017-results.pdf</t>
+  </si>
+  <si>
+    <t>similar behaviour to hire boats (mainly summer)</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -492,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -667,7 +667,7 @@
         <v>389</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -676,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -685,7 +685,7 @@
         <v>158</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -694,7 +694,7 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/KA_Data/privateBoatBehaviour.xlsx
+++ b/KA_Data/privateBoatBehaviour.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kezij\iCloudDrive\Documents\Bristol\Year 3\MDM3\W&amp;B Canal\Canals\KA_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43172A68-DB84-4B79-97B0-6690E36C8A3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5D0A99-2BAE-40A0-A564-4ACB6DCA0A42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A4F6C407-4BFB-44BB-B815-7C3742C9FB8D}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
